--- a/TestData/CaseNumber.xlsx
+++ b/TestData/CaseNumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinnsur\eclipse-workspace\SFDCProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinnsur\git\SFDC\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACA2EE6-2793-42B2-9B5A-DE957478E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559557CC-9085-48D7-BDF5-E0E9594FE3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,34 +391,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>5388500084</v>
+      <c r="A1" s="2">
+        <v>5389710984</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5388500335</v>
+      <c r="A2" s="2">
+        <v>5389483583</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5388500313</v>
+      <c r="A3" s="2">
+        <v>5389796164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5388419289</v>
+      <c r="A4" s="2">
+        <v>5389711254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>5389711215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5389711182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5389711336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5389711329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5389711461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5389711466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5389711206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>5389711464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5389711137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5389711300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>5390637513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>5390637078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>5390637215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>5390636995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5390637151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5390637414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>5390637590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5390637276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5389711004</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://hp.my.salesforce.com/500Kh00000YdYb7" xr:uid="{D79DCD2A-9FCB-4CED-8F32-72E980884A48}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://hp.my.salesforce.com/500Kh00000YdYe6" xr:uid="{358FD243-9576-4405-BDED-EAF68DA610A6}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://hp.my.salesforce.com/500Kh00000YdYdh" xr:uid="{EB9E7920-BB94-4207-8C66-63C67FBD6AF2}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://hp.my.salesforce.com/500Kh00000YdSIJ" xr:uid="{712ED1DC-CEEA-4FBC-8104-E11828899505}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>